--- a/www/so_smec_tpl.xlsx
+++ b/www/so_smec_tpl.xlsx
@@ -1,120 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WEIYU\Desktop\条码追溯   系统模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AFB2BF-7EFA-4326-A44D-42277AD32CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="外部条码" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>订单号</t>
+  </si>
+  <si>
+    <t>物料号</t>
+  </si>
+  <si>
+    <t>二维码</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物料号</t>
+    <t>P203031A112G01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P207012C134G01</t>
-  </si>
-  <si>
-    <t>117583137/0001:20N4V10-BC9-3:P207012C134G01:@G200190@R201013@LL1# @Z0305</t>
-  </si>
-  <si>
-    <t>117583138/0001:20N4V10-BC9-4:P207012C134G01:@G200190@R201013@LL1# @Z0306</t>
-  </si>
-  <si>
-    <t>117583139/0001:20N4V10-BC6-1:P207012C134G01:@G200190@R201013@LL1# @Z0307</t>
-  </si>
-  <si>
-    <t>117583181/0001:20N4V10-BC6-2:P207012C134G01:@G200190@R201013@LL1# @Z0308</t>
-  </si>
-  <si>
-    <t>G116*G103,G116,G107*G110,G363*G168,</t>
-  </si>
-  <si>
-    <t>117583137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117583138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117583139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>117583181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>119640866</t>
+  </si>
+  <si>
+    <t>119640867</t>
+  </si>
+  <si>
+    <t>119640693</t>
+  </si>
+  <si>
+    <t>119640863</t>
+  </si>
+  <si>
+    <t>119640864</t>
+  </si>
+  <si>
+    <t>119640866/0002:21N4V13-817-20:P203031A112G08G01G48G21G11G06G44G34:@G200190@R211119@LL1# @Z0555</t>
+  </si>
+  <si>
+    <t>119640867/0002:21N4V13-821-24:P203031A112G08G01G48G21G11G06G44G34:@G200190@R211119@LL1# @Z0556</t>
+  </si>
+  <si>
+    <t>119640693/0002:21N4V13-907-46:P203031A112G08G01G48G21G34G11G06G44:@G200190@R211119@LL1# @Z0557</t>
+  </si>
+  <si>
+    <t>119640863/0002:21N4V13-818-21:P203031A112G08G01G48G21G11G06G44G34:@G200190@R211119@LL1# @Z0558</t>
+  </si>
+  <si>
+    <t>119640864/0002:21N4V13-819-22:P203031A112G08G01G48G21G11G06G44G34:@G200190@R211119@LL1# @Z0559</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,19 +138,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -163,45 +246,41 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -230,13 +309,9 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -274,233 +349,750 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="A13:B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.21875" customWidth="1"/>
-    <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="105" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>555</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>556</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>557</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>558</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>559</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="6"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="6"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="2"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="2"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>